--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66465115190606</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H2">
-        <v>1.66465115190606</v>
+        <v>6.622357</v>
       </c>
       <c r="I2">
-        <v>0.003946343519561886</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J2">
-        <v>0.003946343519561886</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36598735262455</v>
+        <v>1.504026333333333</v>
       </c>
       <c r="N2">
-        <v>1.36598735262455</v>
+        <v>4.512079</v>
       </c>
       <c r="O2">
-        <v>0.01643465961611733</v>
+        <v>0.01711326496583577</v>
       </c>
       <c r="P2">
-        <v>0.01643465961611733</v>
+        <v>0.01856885401056314</v>
       </c>
       <c r="Q2">
-        <v>2.273892420035567</v>
+        <v>3.320066438911444</v>
       </c>
       <c r="R2">
-        <v>2.273892420035567</v>
+        <v>29.880597950203</v>
       </c>
       <c r="S2">
-        <v>6.485681247227008E-05</v>
+        <v>8.348976307118642E-05</v>
       </c>
       <c r="T2">
-        <v>6.485681247227008E-05</v>
+        <v>9.14541905432444E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66465115190606</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H3">
-        <v>1.66465115190606</v>
+        <v>6.622357</v>
       </c>
       <c r="I3">
-        <v>0.003946343519561886</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J3">
-        <v>0.003946343519561886</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.3246791628169</v>
+        <v>63.30597333333333</v>
       </c>
       <c r="N3">
-        <v>61.3246791628169</v>
+        <v>189.91792</v>
       </c>
       <c r="O3">
-        <v>0.737818125601279</v>
+        <v>0.7203144463384619</v>
       </c>
       <c r="P3">
-        <v>0.737818125601279</v>
+        <v>0.7815816457269054</v>
       </c>
       <c r="Q3">
-        <v>102.0841978086527</v>
+        <v>139.7449185486044</v>
       </c>
       <c r="R3">
-        <v>102.0841978086527</v>
+        <v>1257.70426693744</v>
       </c>
       <c r="S3">
-        <v>0.002911683778581906</v>
+        <v>0.003514167669442963</v>
       </c>
       <c r="T3">
-        <v>0.002911683778581906</v>
+        <v>0.00384939839113115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66465115190606</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H4">
-        <v>1.66465115190606</v>
+        <v>6.622357</v>
       </c>
       <c r="I4">
-        <v>0.003946343519561886</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J4">
-        <v>0.003946343519561886</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>20.4255880667306</v>
+        <v>0.3729686666666667</v>
       </c>
       <c r="N4">
-        <v>20.4255880667306</v>
+        <v>1.118906</v>
       </c>
       <c r="O4">
-        <v>0.2457472147826037</v>
+        <v>0.004243749909933633</v>
       </c>
       <c r="P4">
-        <v>0.2457472147826037</v>
+        <v>0.004604707090798534</v>
       </c>
       <c r="Q4">
-        <v>34.00147870364177</v>
+        <v>0.8233105534935555</v>
       </c>
       <c r="R4">
-        <v>34.00147870364177</v>
+        <v>7.409794981441999</v>
       </c>
       <c r="S4">
-        <v>0.000969802928507711</v>
+        <v>2.070380346596966E-05</v>
       </c>
       <c r="T4">
-        <v>0.000969802928507711</v>
+        <v>2.267882333708683E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>405.57525389282</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H5">
-        <v>405.57525389282</v>
+        <v>6.622357</v>
       </c>
       <c r="I5">
-        <v>0.9614862988332098</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J5">
-        <v>0.9614862988332098</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.36598735262455</v>
+        <v>2.035657333333333</v>
       </c>
       <c r="N5">
-        <v>1.36598735262455</v>
+        <v>6.106972</v>
       </c>
       <c r="O5">
-        <v>0.01643465961611733</v>
+        <v>0.02316232272860028</v>
       </c>
       <c r="P5">
-        <v>0.01643465961611733</v>
+        <v>0.02513242155436481</v>
       </c>
       <c r="Q5">
-        <v>554.0106673550829</v>
+        <v>4.493616530333778</v>
       </c>
       <c r="R5">
-        <v>554.0106673550829</v>
+        <v>40.442548773004</v>
       </c>
       <c r="S5">
-        <v>0.01580170004688427</v>
+        <v>0.0001130010457180314</v>
       </c>
       <c r="T5">
-        <v>0.01580170004688427</v>
+        <v>0.0001237806742590851</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>405.57525389282</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H6">
-        <v>405.57525389282</v>
+        <v>6.622357</v>
       </c>
       <c r="I6">
-        <v>0.9614862988332098</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J6">
-        <v>0.9614862988332098</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.3246791628169</v>
+        <v>20.6679545</v>
       </c>
       <c r="N6">
-        <v>61.3246791628169</v>
+        <v>41.335909</v>
       </c>
       <c r="O6">
-        <v>0.737818125601279</v>
+        <v>0.2351662160571686</v>
       </c>
       <c r="P6">
-        <v>0.737818125601279</v>
+        <v>0.1701123716173682</v>
       </c>
       <c r="Q6">
-        <v>24871.77232135519</v>
+        <v>45.62352438625217</v>
       </c>
       <c r="R6">
-        <v>24871.77232135519</v>
+        <v>273.741146317513</v>
       </c>
       <c r="S6">
-        <v>0.7094020187964301</v>
+        <v>0.001147295486872722</v>
       </c>
       <c r="T6">
-        <v>0.7094020187964301</v>
+        <v>0.0008378271076291463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>405.57525389282</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H7">
-        <v>405.57525389282</v>
+        <v>1303.417145</v>
       </c>
       <c r="I7">
-        <v>0.9614862988332098</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J7">
-        <v>0.9614862988332098</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.4255880667306</v>
+        <v>1.504026333333333</v>
       </c>
       <c r="N7">
-        <v>20.4255880667306</v>
+        <v>4.512079</v>
       </c>
       <c r="O7">
-        <v>0.2457472147826037</v>
+        <v>0.01711326496583577</v>
       </c>
       <c r="P7">
-        <v>0.2457472147826037</v>
+        <v>0.01856885401056314</v>
       </c>
       <c r="Q7">
-        <v>8284.113066074418</v>
+        <v>653.4579031327172</v>
       </c>
       <c r="R7">
-        <v>8284.113066074418</v>
+        <v>5881.121128194454</v>
       </c>
       <c r="S7">
-        <v>0.2362825799898955</v>
+        <v>0.01643251619007738</v>
       </c>
       <c r="T7">
-        <v>0.2362825799898955</v>
+        <v>0.01800008062630293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.13916218976507</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H8">
-        <v>1.13916218976507</v>
+        <v>1303.417145</v>
       </c>
       <c r="I8">
-        <v>0.002700581031744604</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J8">
-        <v>0.002700581031744604</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.36598735262455</v>
+        <v>63.30597333333333</v>
       </c>
       <c r="N8">
-        <v>1.36598735262455</v>
+        <v>189.91792</v>
       </c>
       <c r="O8">
-        <v>0.01643465961611733</v>
+        <v>0.7203144463384619</v>
       </c>
       <c r="P8">
-        <v>0.01643465961611733</v>
+        <v>0.7815816457269054</v>
       </c>
       <c r="Q8">
-        <v>1.556081143807174</v>
+        <v>27504.69700785982</v>
       </c>
       <c r="R8">
-        <v>1.556081143807174</v>
+        <v>247542.2730707384</v>
       </c>
       <c r="S8">
-        <v>4.438313002246553E-05</v>
+        <v>0.6916610491939125</v>
       </c>
       <c r="T8">
-        <v>4.438313002246553E-05</v>
+        <v>0.7576414048556663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.13916218976507</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H9">
-        <v>1.13916218976507</v>
+        <v>1303.417145</v>
       </c>
       <c r="I9">
-        <v>0.002700581031744604</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J9">
-        <v>0.002700581031744604</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>61.3246791628169</v>
+        <v>0.3729686666666667</v>
       </c>
       <c r="N9">
-        <v>61.3246791628169</v>
+        <v>1.118906</v>
       </c>
       <c r="O9">
-        <v>0.737818125601279</v>
+        <v>0.004243749909933633</v>
       </c>
       <c r="P9">
-        <v>0.737818125601279</v>
+        <v>0.004604707090798534</v>
       </c>
       <c r="Q9">
-        <v>69.85875580175487</v>
+        <v>162.0445848937078</v>
       </c>
       <c r="R9">
-        <v>69.85875580175487</v>
+        <v>1458.40126404337</v>
       </c>
       <c r="S9">
-        <v>0.001992537634876172</v>
+        <v>0.004074937730517288</v>
       </c>
       <c r="T9">
-        <v>0.001992537634876172</v>
+        <v>0.004463662585086411</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.13916218976507</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H10">
-        <v>1.13916218976507</v>
+        <v>1303.417145</v>
       </c>
       <c r="I10">
-        <v>0.002700581031744604</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J10">
-        <v>0.002700581031744604</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>20.4255880667306</v>
+        <v>2.035657333333333</v>
       </c>
       <c r="N10">
-        <v>20.4255880667306</v>
+        <v>6.106972</v>
       </c>
       <c r="O10">
-        <v>0.2457472147826037</v>
+        <v>0.02316232272860028</v>
       </c>
       <c r="P10">
-        <v>0.2457472147826037</v>
+        <v>0.02513242155436481</v>
       </c>
       <c r="Q10">
-        <v>23.26805762933612</v>
+        <v>884.4368898705488</v>
       </c>
       <c r="R10">
-        <v>23.26805762933612</v>
+        <v>7959.93200883494</v>
       </c>
       <c r="S10">
-        <v>0.0006636602668459667</v>
+        <v>0.02224094841033351</v>
       </c>
       <c r="T10">
-        <v>0.0006636602668459667</v>
+        <v>0.02436260277858044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.814736007601479</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H11">
-        <v>0.814736007601479</v>
+        <v>1303.417145</v>
       </c>
       <c r="I11">
-        <v>0.00193147264522679</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J11">
-        <v>0.00193147264522679</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.36598735262455</v>
+        <v>20.6679545</v>
       </c>
       <c r="N11">
-        <v>1.36598735262455</v>
+        <v>41.335909</v>
       </c>
       <c r="O11">
-        <v>0.01643465961611733</v>
+        <v>0.2351662160571686</v>
       </c>
       <c r="P11">
-        <v>0.01643465961611733</v>
+        <v>0.1701123716173682</v>
       </c>
       <c r="Q11">
-        <v>1.11291908211144</v>
+        <v>8979.655415793301</v>
       </c>
       <c r="R11">
-        <v>1.11291908211144</v>
+        <v>53877.9324947598</v>
       </c>
       <c r="S11">
-        <v>3.174309548214404E-05</v>
+        <v>0.2258115362809689</v>
       </c>
       <c r="T11">
-        <v>3.174309548214404E-05</v>
+        <v>0.1649017436887787</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.814736007601479</v>
+        <v>1.919792</v>
       </c>
       <c r="H12">
-        <v>0.814736007601479</v>
+        <v>5.759376</v>
       </c>
       <c r="I12">
-        <v>0.00193147264522679</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J12">
-        <v>0.00193147264522679</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.3246791628169</v>
+        <v>1.504026333333333</v>
       </c>
       <c r="N12">
-        <v>61.3246791628169</v>
+        <v>4.512079</v>
       </c>
       <c r="O12">
-        <v>0.737818125601279</v>
+        <v>0.01711326496583577</v>
       </c>
       <c r="P12">
-        <v>0.737818125601279</v>
+        <v>0.01856885401056314</v>
       </c>
       <c r="Q12">
-        <v>49.96342426855505</v>
+        <v>2.887417722522667</v>
       </c>
       <c r="R12">
-        <v>49.96342426855505</v>
+        <v>25.986759502704</v>
       </c>
       <c r="S12">
-        <v>0.001425075526751374</v>
+        <v>7.260993898061936E-05</v>
       </c>
       <c r="T12">
-        <v>0.001425075526751374</v>
+        <v>7.953649586003727E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.814736007601479</v>
+        <v>1.919792</v>
       </c>
       <c r="H13">
-        <v>0.814736007601479</v>
+        <v>5.759376</v>
       </c>
       <c r="I13">
-        <v>0.00193147264522679</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J13">
-        <v>0.00193147264522679</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.4255880667306</v>
+        <v>63.30597333333333</v>
       </c>
       <c r="N13">
-        <v>20.4255880667306</v>
+        <v>189.91792</v>
       </c>
       <c r="O13">
-        <v>0.2457472147826037</v>
+        <v>0.7203144463384619</v>
       </c>
       <c r="P13">
-        <v>0.2457472147826037</v>
+        <v>0.7815816457269054</v>
       </c>
       <c r="Q13">
-        <v>16.6414620744005</v>
+        <v>121.5343011575467</v>
       </c>
       <c r="R13">
-        <v>16.6414620744005</v>
+        <v>1093.80871041792</v>
       </c>
       <c r="S13">
-        <v>0.0004746540229932716</v>
+        <v>0.003056224986868835</v>
       </c>
       <c r="T13">
-        <v>0.0004746540229932716</v>
+        <v>0.003347770696795621</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.6273442719144</v>
+        <v>1.919792</v>
       </c>
       <c r="H14">
-        <v>12.6273442719144</v>
+        <v>5.759376</v>
       </c>
       <c r="I14">
-        <v>0.02993530397025696</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J14">
-        <v>0.02993530397025696</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.36598735262455</v>
+        <v>0.3729686666666667</v>
       </c>
       <c r="N14">
-        <v>1.36598735262455</v>
+        <v>1.118906</v>
       </c>
       <c r="O14">
-        <v>0.01643465961611733</v>
+        <v>0.004243749909933633</v>
       </c>
       <c r="P14">
-        <v>0.01643465961611733</v>
+        <v>0.004604707090798534</v>
       </c>
       <c r="Q14">
-        <v>17.24879257267113</v>
+        <v>0.7160222625173334</v>
       </c>
       <c r="R14">
-        <v>17.24879257267113</v>
+        <v>6.444200362656001</v>
       </c>
       <c r="S14">
-        <v>0.0004919765312561789</v>
+        <v>1.800582312168047E-05</v>
       </c>
       <c r="T14">
-        <v>0.0004919765312561789</v>
+        <v>1.972347169381805E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.6273442719144</v>
+        <v>1.919792</v>
       </c>
       <c r="H15">
-        <v>12.6273442719144</v>
+        <v>5.759376</v>
       </c>
       <c r="I15">
-        <v>0.02993530397025696</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J15">
-        <v>0.02993530397025696</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>61.3246791628169</v>
+        <v>2.035657333333333</v>
       </c>
       <c r="N15">
-        <v>61.3246791628169</v>
+        <v>6.106972</v>
       </c>
       <c r="O15">
-        <v>0.737818125601279</v>
+        <v>0.02316232272860028</v>
       </c>
       <c r="P15">
-        <v>0.737818125601279</v>
+        <v>0.02513242155436481</v>
       </c>
       <c r="Q15">
-        <v>774.3678361535843</v>
+        <v>3.908038663274667</v>
       </c>
       <c r="R15">
-        <v>774.3678361535843</v>
+        <v>35.172347969472</v>
       </c>
       <c r="S15">
-        <v>0.02208680986463952</v>
+        <v>9.827550986504247E-05</v>
       </c>
       <c r="T15">
-        <v>0.02208680986463952</v>
+        <v>0.0001076504097546527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.6273442719144</v>
+        <v>1.919792</v>
       </c>
       <c r="H16">
-        <v>12.6273442719144</v>
+        <v>5.759376</v>
       </c>
       <c r="I16">
-        <v>0.02993530397025696</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J16">
-        <v>0.02993530397025696</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.4255880667306</v>
+        <v>20.6679545</v>
       </c>
       <c r="N16">
-        <v>20.4255880667306</v>
+        <v>41.335909</v>
       </c>
       <c r="O16">
-        <v>0.2457472147826037</v>
+        <v>0.2351662160571686</v>
       </c>
       <c r="P16">
-        <v>0.2457472147826037</v>
+        <v>0.1701123716173682</v>
       </c>
       <c r="Q16">
-        <v>257.9209324749137</v>
+        <v>39.678173705464</v>
       </c>
       <c r="R16">
-        <v>257.9209324749137</v>
+        <v>238.069042232784</v>
       </c>
       <c r="S16">
-        <v>0.007356517574361265</v>
+        <v>0.0009977876595905462</v>
       </c>
       <c r="T16">
-        <v>0.007356517574361265</v>
+        <v>0.0007286471170051272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.060907666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.182723</v>
+      </c>
+      <c r="I17">
+        <v>0.002344696350432208</v>
+      </c>
+      <c r="J17">
+        <v>0.002367035448005447</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.504026333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.512079</v>
+      </c>
+      <c r="O17">
+        <v>0.01711326496583577</v>
+      </c>
+      <c r="P17">
+        <v>0.01856885401056314</v>
+      </c>
+      <c r="Q17">
+        <v>1.595633067901889</v>
+      </c>
+      <c r="R17">
+        <v>14.360697611117</v>
+      </c>
+      <c r="S17">
+        <v>4.01254099093745E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.395313567184107E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.060907666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.182723</v>
+      </c>
+      <c r="I18">
+        <v>0.002344696350432208</v>
+      </c>
+      <c r="J18">
+        <v>0.002367035448005447</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>63.30597333333333</v>
+      </c>
+      <c r="N18">
+        <v>189.91792</v>
+      </c>
+      <c r="O18">
+        <v>0.7203144463384619</v>
+      </c>
+      <c r="P18">
+        <v>0.7815816457269054</v>
+      </c>
+      <c r="Q18">
+        <v>67.16179245512888</v>
+      </c>
+      <c r="R18">
+        <v>604.4561320961599</v>
+      </c>
+      <c r="S18">
+        <v>0.001688918653493388</v>
+      </c>
+      <c r="T18">
+        <v>0.00185003146094602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.060907666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.182723</v>
+      </c>
+      <c r="I19">
+        <v>0.002344696350432208</v>
+      </c>
+      <c r="J19">
+        <v>0.002367035448005447</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.3729686666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.118906</v>
+      </c>
+      <c r="O19">
+        <v>0.004243749909933633</v>
+      </c>
+      <c r="P19">
+        <v>0.004604707090798534</v>
+      </c>
+      <c r="Q19">
+        <v>0.3956853178931111</v>
+      </c>
+      <c r="R19">
+        <v>3.561167861038</v>
+      </c>
+      <c r="S19">
+        <v>9.950304925968403E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.089950491160217E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.060907666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.182723</v>
+      </c>
+      <c r="I20">
+        <v>0.002344696350432208</v>
+      </c>
+      <c r="J20">
+        <v>0.002367035448005447</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>2.035657333333333</v>
+      </c>
+      <c r="N20">
+        <v>6.106972</v>
+      </c>
+      <c r="O20">
+        <v>0.02316232272860028</v>
+      </c>
+      <c r="P20">
+        <v>0.02513242155436481</v>
+      </c>
+      <c r="Q20">
+        <v>2.159644471639556</v>
+      </c>
+      <c r="R20">
+        <v>19.436800244756</v>
+      </c>
+      <c r="S20">
+        <v>5.430861356928206E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.948933271339766E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.060907666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.182723</v>
+      </c>
+      <c r="I21">
+        <v>0.002344696350432208</v>
+      </c>
+      <c r="J21">
+        <v>0.002367035448005447</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.6679545</v>
+      </c>
+      <c r="N21">
+        <v>41.335909</v>
+      </c>
+      <c r="O21">
+        <v>0.2351662160571686</v>
+      </c>
+      <c r="P21">
+        <v>0.1701123716173682</v>
+      </c>
+      <c r="Q21">
+        <v>21.92679138336783</v>
+      </c>
+      <c r="R21">
+        <v>131.560748300207</v>
+      </c>
+      <c r="S21">
+        <v>0.0005513933685341955</v>
+      </c>
+      <c r="T21">
+        <v>0.0004026620137625862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12.810707</v>
+      </c>
+      <c r="H22">
+        <v>25.621414</v>
+      </c>
+      <c r="I22">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J22">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.504026333333333</v>
+      </c>
+      <c r="N22">
+        <v>4.512079</v>
+      </c>
+      <c r="O22">
+        <v>0.01711326496583577</v>
+      </c>
+      <c r="P22">
+        <v>0.01856885401056314</v>
+      </c>
+      <c r="Q22">
+        <v>19.26764067661767</v>
+      </c>
+      <c r="R22">
+        <v>115.605844059706</v>
+      </c>
+      <c r="S22">
+        <v>0.0004845236637972203</v>
+      </c>
+      <c r="T22">
+        <v>0.0003538295621850875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.810707</v>
+      </c>
+      <c r="H23">
+        <v>25.621414</v>
+      </c>
+      <c r="I23">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J23">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>63.30597333333333</v>
+      </c>
+      <c r="N23">
+        <v>189.91792</v>
+      </c>
+      <c r="O23">
+        <v>0.7203144463384619</v>
+      </c>
+      <c r="P23">
+        <v>0.7815816457269054</v>
+      </c>
+      <c r="Q23">
+        <v>810.9942757231466</v>
+      </c>
+      <c r="R23">
+        <v>4865.96565433888</v>
+      </c>
+      <c r="S23">
+        <v>0.02039408583474433</v>
+      </c>
+      <c r="T23">
+        <v>0.01489304032236636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12.810707</v>
+      </c>
+      <c r="H24">
+        <v>25.621414</v>
+      </c>
+      <c r="I24">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J24">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.3729686666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.118906</v>
+      </c>
+      <c r="O24">
+        <v>0.004243749909933633</v>
+      </c>
+      <c r="P24">
+        <v>0.004604707090798534</v>
+      </c>
+      <c r="Q24">
+        <v>4.777992308847334</v>
+      </c>
+      <c r="R24">
+        <v>28.667953853084</v>
+      </c>
+      <c r="S24">
+        <v>0.0001201522479027279</v>
+      </c>
+      <c r="T24">
+        <v>8.774270576961696E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12.810707</v>
+      </c>
+      <c r="H25">
+        <v>25.621414</v>
+      </c>
+      <c r="I25">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J25">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>2.035657333333333</v>
+      </c>
+      <c r="N25">
+        <v>6.106972</v>
+      </c>
+      <c r="O25">
+        <v>0.02316232272860028</v>
+      </c>
+      <c r="P25">
+        <v>0.02513242155436481</v>
+      </c>
+      <c r="Q25">
+        <v>26.07820964973467</v>
+      </c>
+      <c r="R25">
+        <v>156.469257898408</v>
+      </c>
+      <c r="S25">
+        <v>0.0006557891491144189</v>
+      </c>
+      <c r="T25">
+        <v>0.0004788983590572302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12.810707</v>
+      </c>
+      <c r="H26">
+        <v>25.621414</v>
+      </c>
+      <c r="I26">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J26">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.6679545</v>
+      </c>
+      <c r="N26">
+        <v>41.335909</v>
+      </c>
+      <c r="O26">
+        <v>0.2351662160571686</v>
+      </c>
+      <c r="P26">
+        <v>0.1701123716173682</v>
+      </c>
+      <c r="Q26">
+        <v>264.7711093888315</v>
+      </c>
+      <c r="R26">
+        <v>1059.084437555326</v>
+      </c>
+      <c r="S26">
+        <v>0.006658203261202372</v>
+      </c>
+      <c r="T26">
+        <v>0.003241491690192618</v>
       </c>
     </row>
   </sheetData>
